--- a/biology/Zoologie/Homalopteroides/Homalopteroides.xlsx
+++ b/biology/Zoologie/Homalopteroides/Homalopteroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Homalopteroides est un genre de poissons téléostéens de la famille des Balitoridae et de l'ordre des Cypriniformes. Homalopteroides est un genre de loches de ruisseaux de colline originaire d'Asie du Sud-Est. L'espèce type est Homaloptera wassinkii Bleeker, 1853.
 </t>
@@ -511,13 +523,49 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (10 juillet 2015)[1]:
-Genre non encore reconnu par FishBase.
-Note
-Selon Randall, Z.S. &amp; Page, L.M. (2015)[2]:
-Homalopteroides avii Z. S. Randall &amp; Page, 2014[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (10 juillet 2015):
+Genre non encore reconnu par FishBase.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Homalopteroides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Homalopteroides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Randall, Z.S. &amp; Page, L.M. (2015):
+Homalopteroides avii Z. S. Randall &amp; Page, 2014
 Homalopteroides indochinensis Silas, 1953
 Homalopteroides modestus Vinciguerra, 1890
 Homalopteroides nebulosus Alfred, 1969
